--- a/dataweb_formateado.xlsx
+++ b/dataweb_formateado.xlsx
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>61.06</t>
+          <t>61.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>61.06</t>
+          <t>61.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10859</t>
+          <t>13611</t>
         </is>
       </c>
     </row>
